--- a/health_backend/src/main/webapp/template/ordersetting_template.xlsx
+++ b/health_backend/src/main/webapp/template/ordersetting_template.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="96" windowWidth="19200" windowHeight="11640"/>
@@ -27,8 +27,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,7 +97,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -107,17 +107,25 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -191,6 +199,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -225,6 +234,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -400,25 +410,545 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="18" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>44044</v>
+      </c>
+      <c r="B2" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>44045</v>
+      </c>
+      <c r="B3" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>44046</v>
+      </c>
+      <c r="B4" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>44047</v>
+      </c>
+      <c r="B5" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>44048</v>
+      </c>
+      <c r="B6" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>44049</v>
+      </c>
+      <c r="B7" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>44050</v>
+      </c>
+      <c r="B8" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>44051</v>
+      </c>
+      <c r="B9" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>44052</v>
+      </c>
+      <c r="B10" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>44053</v>
+      </c>
+      <c r="B11" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>44054</v>
+      </c>
+      <c r="B12" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>44055</v>
+      </c>
+      <c r="B13" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>44056</v>
+      </c>
+      <c r="B14" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>44057</v>
+      </c>
+      <c r="B15" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>44058</v>
+      </c>
+      <c r="B16" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>44059</v>
+      </c>
+      <c r="B17" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>44060</v>
+      </c>
+      <c r="B18" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>44061</v>
+      </c>
+      <c r="B19" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>44062</v>
+      </c>
+      <c r="B20" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>44063</v>
+      </c>
+      <c r="B21" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>44064</v>
+      </c>
+      <c r="B22" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>44065</v>
+      </c>
+      <c r="B23" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>44066</v>
+      </c>
+      <c r="B24" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>44067</v>
+      </c>
+      <c r="B25" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>44068</v>
+      </c>
+      <c r="B26" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>44069</v>
+      </c>
+      <c r="B27" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>44070</v>
+      </c>
+      <c r="B28" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>44071</v>
+      </c>
+      <c r="B29" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>44072</v>
+      </c>
+      <c r="B30" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>44073</v>
+      </c>
+      <c r="B31" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>44074</v>
+      </c>
+      <c r="B32" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>44075</v>
+      </c>
+      <c r="B33" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>44076</v>
+      </c>
+      <c r="B34" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>44077</v>
+      </c>
+      <c r="B35" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>44078</v>
+      </c>
+      <c r="B36" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>44079</v>
+      </c>
+      <c r="B37" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>44080</v>
+      </c>
+      <c r="B38" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>44081</v>
+      </c>
+      <c r="B39" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>44082</v>
+      </c>
+      <c r="B40" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>44083</v>
+      </c>
+      <c r="B41" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>44084</v>
+      </c>
+      <c r="B42" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>44085</v>
+      </c>
+      <c r="B43" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>44086</v>
+      </c>
+      <c r="B44" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>44087</v>
+      </c>
+      <c r="B45" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>44088</v>
+      </c>
+      <c r="B46" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>44089</v>
+      </c>
+      <c r="B47" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>44090</v>
+      </c>
+      <c r="B48" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>44091</v>
+      </c>
+      <c r="B49" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
+        <v>44092</v>
+      </c>
+      <c r="B50" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>44093</v>
+      </c>
+      <c r="B51" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>44094</v>
+      </c>
+      <c r="B52" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <v>44095</v>
+      </c>
+      <c r="B53" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>44096</v>
+      </c>
+      <c r="B54" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>44097</v>
+      </c>
+      <c r="B55" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <v>44098</v>
+      </c>
+      <c r="B56" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <v>44099</v>
+      </c>
+      <c r="B57" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <v>44100</v>
+      </c>
+      <c r="B58" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <v>44101</v>
+      </c>
+      <c r="B59" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <v>44102</v>
+      </c>
+      <c r="B60" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <v>44103</v>
+      </c>
+      <c r="B61" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <v>44104</v>
+      </c>
+      <c r="B62" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
+        <v>44105</v>
+      </c>
+      <c r="B63" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
+        <v>44106</v>
+      </c>
+      <c r="B64" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
+        <v>44107</v>
+      </c>
+      <c r="B65" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
+        <v>44108</v>
+      </c>
+      <c r="B66" s="1">
+        <v>300</v>
       </c>
     </row>
   </sheetData>
